--- a/output/cashflow.xlsx
+++ b/output/cashflow.xlsx
@@ -8,28 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsusser/Desktop/Financial-Statements/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21389F0-7D93-514F-9E3D-A73132D7C0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0822214-5F4E-9743-8571-02CA8DCE292E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="5140" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="125">
   <si>
     <t>title</t>
   </si>
@@ -43,13 +34,10 @@
     <t>Q1 2017</t>
   </si>
   <si>
-    <t>Q2 2017</t>
-  </si>
-  <si>
-    <t>Q3 2017</t>
-  </si>
-  <si>
-    <t>Q4 2017</t>
+    <t>6mo 2017</t>
+  </si>
+  <si>
+    <t>9mo 2017</t>
   </si>
   <si>
     <t>Year Ended 2017</t>
@@ -58,13 +46,10 @@
     <t>Q1 2018</t>
   </si>
   <si>
-    <t>Q2 2018</t>
-  </si>
-  <si>
-    <t>Q3 2018</t>
-  </si>
-  <si>
-    <t>Q4 2018</t>
+    <t>6mo 2018</t>
+  </si>
+  <si>
+    <t>9mo 2018</t>
   </si>
   <si>
     <t>Year Ended 2018</t>
@@ -73,13 +58,10 @@
     <t>Q1 2019</t>
   </si>
   <si>
-    <t>Q2 2019</t>
-  </si>
-  <si>
-    <t>Q3 2019</t>
-  </si>
-  <si>
-    <t>Q4 2019</t>
+    <t>6mo 2019</t>
+  </si>
+  <si>
+    <t>9mo 2019</t>
   </si>
   <si>
     <t>Year Ended 2019</t>
@@ -88,13 +70,10 @@
     <t>Q1 2020</t>
   </si>
   <si>
-    <t>Q2 2020</t>
-  </si>
-  <si>
-    <t>Q3 2020</t>
-  </si>
-  <si>
-    <t>Q4 2020</t>
+    <t>6mo 2020</t>
+  </si>
+  <si>
+    <t>9mo 2020</t>
   </si>
   <si>
     <t>Year Ended 2020</t>
@@ -103,13 +82,10 @@
     <t>Q1 2021</t>
   </si>
   <si>
-    <t>Q2 2021</t>
-  </si>
-  <si>
-    <t>Q3 2021</t>
-  </si>
-  <si>
-    <t>Q4 2021</t>
+    <t>6mo 2021</t>
+  </si>
+  <si>
+    <t>9mo 2021</t>
   </si>
   <si>
     <t>Year Ended 2021</t>
@@ -118,13 +94,10 @@
     <t>Q1 2022</t>
   </si>
   <si>
-    <t>Q2 2022</t>
-  </si>
-  <si>
-    <t>Q3 2022</t>
-  </si>
-  <si>
-    <t>Q4 2022</t>
+    <t>6mo 2022</t>
+  </si>
+  <si>
+    <t>9mo 2022</t>
   </si>
   <si>
     <t>Year Ended 2022</t>
@@ -368,9 +341,6 @@
   </si>
   <si>
     <t>net increase in cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>net decrease in cash and cash equivalents</t>
   </si>
   <si>
     <t>effect of exchange rate on cash, cash equivalents, restricted cash and restricted cash equivalents</t>
@@ -788,18 +758,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="71.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,34 +854,16 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="C2" t="s">
         <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
       <c r="D2">
         <v>920</v>
@@ -917,102 +872,84 @@
         <v>127</v>
       </c>
       <c r="F2">
-        <v>125</v>
+        <v>252</v>
       </c>
       <c r="G2">
-        <v>204</v>
+        <v>456</v>
       </c>
       <c r="H2">
-        <v>220</v>
+        <v>676</v>
       </c>
       <c r="I2">
-        <v>676</v>
+        <v>143</v>
       </c>
       <c r="J2">
-        <v>143</v>
+        <v>414</v>
       </c>
       <c r="K2">
-        <v>271</v>
+        <v>643</v>
       </c>
       <c r="L2">
-        <v>229</v>
+        <v>848</v>
       </c>
       <c r="M2">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="N2">
-        <v>848</v>
+        <v>461</v>
       </c>
       <c r="O2">
-        <v>164</v>
+        <v>727</v>
       </c>
       <c r="P2">
-        <v>297</v>
+        <v>1003</v>
       </c>
       <c r="Q2">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="R2">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="S2">
-        <v>1003</v>
+        <v>535</v>
       </c>
       <c r="T2">
-        <v>227</v>
+        <v>351</v>
       </c>
       <c r="U2">
-        <v>168</v>
+        <v>-932</v>
       </c>
       <c r="V2">
-        <v>140</v>
+        <v>-994</v>
       </c>
       <c r="W2">
-        <v>-184</v>
+        <v>-899</v>
       </c>
       <c r="X2">
-        <v>351</v>
+        <v>-665</v>
       </c>
       <c r="Y2">
-        <v>-932</v>
+        <v>166</v>
       </c>
       <c r="Z2">
-        <v>-62</v>
+        <v>424</v>
       </c>
       <c r="AA2">
-        <v>95</v>
+        <v>272</v>
       </c>
       <c r="AB2">
-        <v>234</v>
-      </c>
-      <c r="AC2">
-        <v>-665</v>
-      </c>
-      <c r="AD2">
-        <v>166</v>
-      </c>
-      <c r="AE2">
-        <v>258</v>
-      </c>
-      <c r="AF2">
-        <v>-152</v>
-      </c>
-      <c r="AG2">
-        <v>-16</v>
-      </c>
-      <c r="AH2">
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>592</v>
@@ -1021,102 +958,84 @@
         <v>148</v>
       </c>
       <c r="F3">
-        <v>155</v>
+        <v>303</v>
       </c>
       <c r="G3">
-        <v>146</v>
+        <v>449</v>
       </c>
       <c r="H3">
-        <v>144</v>
+        <v>593</v>
       </c>
       <c r="I3">
-        <v>593</v>
+        <v>138</v>
       </c>
       <c r="J3">
+        <v>279</v>
+      </c>
+      <c r="K3">
+        <v>418</v>
+      </c>
+      <c r="L3">
+        <v>559</v>
+      </c>
+      <c r="M3">
+        <v>140</v>
+      </c>
+      <c r="N3">
+        <v>280</v>
+      </c>
+      <c r="O3">
+        <v>425</v>
+      </c>
+      <c r="P3">
+        <v>578</v>
+      </c>
+      <c r="Q3">
         <v>138</v>
       </c>
-      <c r="K3">
-        <v>141</v>
-      </c>
-      <c r="L3">
-        <v>139</v>
-      </c>
-      <c r="M3">
-        <v>141</v>
-      </c>
-      <c r="N3">
-        <v>559</v>
-      </c>
-      <c r="O3">
-        <v>140</v>
-      </c>
-      <c r="P3">
-        <v>140</v>
-      </c>
-      <c r="Q3">
-        <v>145</v>
-      </c>
       <c r="R3">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="S3">
-        <v>578</v>
+        <v>417</v>
       </c>
       <c r="T3">
-        <v>138</v>
+        <v>557</v>
       </c>
       <c r="U3">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="V3">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="W3">
-        <v>140</v>
+        <v>381</v>
       </c>
       <c r="X3">
-        <v>557</v>
+        <v>507</v>
       </c>
       <c r="Y3">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="Z3">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="AA3">
-        <v>125</v>
+        <v>372</v>
       </c>
       <c r="AB3">
-        <v>126</v>
-      </c>
-      <c r="AC3">
-        <v>507</v>
-      </c>
-      <c r="AD3">
-        <v>120</v>
-      </c>
-      <c r="AE3">
-        <v>124</v>
-      </c>
-      <c r="AF3">
-        <v>128</v>
-      </c>
-      <c r="AG3">
-        <v>132</v>
-      </c>
-      <c r="AH3">
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>76</v>
@@ -1125,102 +1044,84 @@
         <v>15</v>
       </c>
       <c r="F4">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>55</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>60</v>
+      </c>
+      <c r="L4">
+        <v>87</v>
+      </c>
+      <c r="M4">
         <v>21</v>
       </c>
-      <c r="G4">
-        <v>19</v>
-      </c>
-      <c r="H4">
-        <v>21</v>
-      </c>
-      <c r="I4">
-        <v>76</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>22</v>
-      </c>
-      <c r="L4">
-        <v>18</v>
-      </c>
-      <c r="M4">
-        <v>27</v>
-      </c>
       <c r="N4">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="O4">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="P4">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="Q4">
         <v>24</v>
       </c>
       <c r="R4">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="S4">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="T4">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="U4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="V4">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="X4">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="Y4">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Z4">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="AA4">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="AB4">
-        <v>22</v>
-      </c>
-      <c r="AC4">
-        <v>77</v>
-      </c>
-      <c r="AD4">
-        <v>36</v>
-      </c>
-      <c r="AE4">
-        <v>36</v>
-      </c>
-      <c r="AF4">
-        <v>25</v>
-      </c>
-      <c r="AG4">
-        <v>42</v>
-      </c>
-      <c r="AH4">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1268,63 +1169,45 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>361</v>
       </c>
       <c r="W5">
-        <v>238</v>
+        <v>361</v>
       </c>
       <c r="X5">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>360</v>
+        <v>5</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB5">
-        <v>-361</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>5</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>-6</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>54</v>
@@ -1342,7 +1225,7 @@
         <v>107</v>
       </c>
       <c r="I6">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1351,84 +1234,66 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M6">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="U6">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="V6">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="W6">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="X6">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>-127</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>-1</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1485,55 +1350,37 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>58</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
         <v>325</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
       <c r="D8">
         <v>0</v>
       </c>
@@ -1577,66 +1424,48 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AB8">
-        <v>4</v>
-      </c>
-      <c r="AC8">
-        <v>12</v>
-      </c>
-      <c r="AD8">
-        <v>4</v>
-      </c>
-      <c r="AE8">
-        <v>4</v>
-      </c>
-      <c r="AF8">
-        <v>3</v>
-      </c>
-      <c r="AG8">
-        <v>3</v>
-      </c>
-      <c r="AH8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>-126</v>
@@ -1645,102 +1474,84 @@
         <v>-6</v>
       </c>
       <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
         <v>12</v>
       </c>
-      <c r="G9">
+      <c r="H9">
+        <v>-4</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>26</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9">
+        <v>-10</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
         <v>6</v>
       </c>
-      <c r="H9">
-        <v>-16</v>
-      </c>
-      <c r="I9">
+      <c r="S9">
         <v>-4</v>
       </c>
-      <c r="J9">
-        <v>-1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>26</v>
-      </c>
-      <c r="M9">
-        <v>-18</v>
-      </c>
-      <c r="N9">
-        <v>8</v>
-      </c>
-      <c r="O9">
-        <v>7</v>
-      </c>
-      <c r="P9">
-        <v>5</v>
-      </c>
-      <c r="Q9">
-        <v>-2</v>
-      </c>
-      <c r="R9">
-        <v>-20</v>
-      </c>
-      <c r="S9">
+      <c r="T9">
         <v>-10</v>
       </c>
-      <c r="T9">
-        <v>7</v>
-      </c>
       <c r="U9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="V9">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Z9">
-        <v>-3</v>
+        <v>14</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>13</v>
-      </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
-      <c r="AF9">
-        <v>7</v>
-      </c>
-      <c r="AG9">
-        <v>10</v>
-      </c>
-      <c r="AH9">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1809,42 +1620,24 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>59</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>-59</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>101</v>
@@ -1853,102 +1646,84 @@
         <v>-9</v>
       </c>
       <c r="F11">
-        <v>-5</v>
+        <v>-14</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>-10</v>
       </c>
       <c r="H11">
-        <v>-44</v>
+        <v>-54</v>
       </c>
       <c r="I11">
-        <v>-54</v>
+        <v>-10</v>
       </c>
       <c r="J11">
-        <v>-10</v>
+        <v>-27</v>
       </c>
       <c r="K11">
-        <v>-17</v>
+        <v>-50</v>
       </c>
       <c r="L11">
-        <v>-23</v>
+        <v>61</v>
       </c>
       <c r="M11">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="O11">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="P11">
+        <v>65</v>
+      </c>
+      <c r="Q11">
+        <v>23</v>
+      </c>
+      <c r="R11">
+        <v>46</v>
+      </c>
+      <c r="S11">
+        <v>42</v>
+      </c>
+      <c r="T11">
+        <v>-81</v>
+      </c>
+      <c r="U11">
+        <v>-41</v>
+      </c>
+      <c r="V11">
+        <v>-125</v>
+      </c>
+      <c r="W11">
+        <v>-74</v>
+      </c>
+      <c r="X11">
+        <v>-137</v>
+      </c>
+      <c r="Y11">
         <v>18</v>
       </c>
-      <c r="Q11">
-        <v>9</v>
-      </c>
-      <c r="R11">
-        <v>32</v>
-      </c>
-      <c r="S11">
-        <v>65</v>
-      </c>
-      <c r="T11">
-        <v>23</v>
-      </c>
-      <c r="U11">
-        <v>23</v>
-      </c>
-      <c r="V11">
-        <v>-4</v>
-      </c>
-      <c r="W11">
-        <v>-123</v>
-      </c>
-      <c r="X11">
-        <v>-81</v>
-      </c>
-      <c r="Y11">
-        <v>-41</v>
-      </c>
       <c r="Z11">
-        <v>-84</v>
+        <v>28</v>
       </c>
       <c r="AA11">
-        <v>51</v>
+        <v>-28</v>
       </c>
       <c r="AB11">
-        <v>-63</v>
-      </c>
-      <c r="AC11">
-        <v>-137</v>
-      </c>
-      <c r="AD11">
-        <v>18</v>
-      </c>
-      <c r="AE11">
-        <v>10</v>
-      </c>
-      <c r="AF11">
-        <v>-56</v>
-      </c>
-      <c r="AG11">
-        <v>-33</v>
-      </c>
-      <c r="AH11">
         <v>-61</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1957,43 +1732,43 @@
         <v>-16</v>
       </c>
       <c r="F12">
+        <v>-31</v>
+      </c>
+      <c r="G12">
+        <v>-47</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>-15</v>
       </c>
-      <c r="G12">
-        <v>-16</v>
-      </c>
-      <c r="H12">
-        <v>47</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="K12">
-        <v>-15</v>
+        <v>-46</v>
       </c>
       <c r="L12">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>-14</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="O12">
-        <v>-14</v>
+        <v>-45</v>
       </c>
       <c r="P12">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -2025,34 +1800,16 @@
       <c r="AB12">
         <v>0</v>
       </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2094,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-191</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>-191</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>-191</v>
       </c>
       <c r="T13">
         <v>-191</v>
@@ -2115,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-191</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2129,34 +1886,16 @@
       <c r="AB13">
         <v>0</v>
       </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>56</v>
-      </c>
-      <c r="AE13">
-        <v>-56</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>26</v>
@@ -2165,16 +1904,16 @@
         <v>-3</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="I14">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2233,34 +1972,16 @@
       <c r="AB14">
         <v>0</v>
       </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>-28</v>
@@ -2269,16 +1990,16 @@
         <v>-1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2337,34 +2058,16 @@
       <c r="AB15">
         <v>0</v>
       </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2379,7 +2082,7 @@
         <v>89</v>
       </c>
       <c r="H16">
-        <v>-89</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2441,34 +2144,16 @@
       <c r="AB16">
         <v>0</v>
       </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2480,22 +2165,22 @@
         <v>56</v>
       </c>
       <c r="G17">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2545,34 +2230,16 @@
       <c r="AB17">
         <v>0</v>
       </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>-65</v>
@@ -2590,7 +2257,7 @@
         <v>-62</v>
       </c>
       <c r="I18">
-        <v>-62</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2599,28 +2266,28 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="M18">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2649,34 +2316,16 @@
       <c r="AB18">
         <v>0</v>
       </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2703,31 +2352,31 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2736,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2753,34 +2402,16 @@
       <c r="AB19">
         <v>0</v>
       </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2857,34 +2488,16 @@
       <c r="AB20">
         <v>0</v>
       </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2947,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2959,36 +2572,18 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>391</v>
-      </c>
-      <c r="AC21">
-        <v>391</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
         <v>8</v>
       </c>
-      <c r="AH21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3051,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -3063,36 +2658,18 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>135</v>
-      </c>
-      <c r="AC22">
-        <v>135</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
         <v>1</v>
       </c>
-      <c r="AH22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3155,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -3167,36 +2744,18 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>31</v>
-      </c>
-      <c r="AC23">
-        <v>31</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3273,34 +2832,16 @@
       <c r="AB24">
         <v>0</v>
       </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3375,36 +2916,18 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
         <v>59</v>
       </c>
-      <c r="AH25">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3481,34 +3004,16 @@
       <c r="AB26">
         <v>0</v>
       </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3526,7 +3031,7 @@
         <v>71</v>
       </c>
       <c r="I27">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3585,34 +3090,16 @@
       <c r="AB27">
         <v>0</v>
       </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>-6</v>
@@ -3621,102 +3108,84 @@
         <v>-53</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>-52</v>
       </c>
       <c r="G28">
-        <v>-461</v>
+        <v>-513</v>
       </c>
       <c r="H28">
+        <v>46</v>
+      </c>
+      <c r="I28">
+        <v>-133</v>
+      </c>
+      <c r="J28">
+        <v>-203</v>
+      </c>
+      <c r="K28">
+        <v>-636</v>
+      </c>
+      <c r="L28">
+        <v>-142</v>
+      </c>
+      <c r="M28">
+        <v>46</v>
+      </c>
+      <c r="N28">
+        <v>-224</v>
+      </c>
+      <c r="O28">
+        <v>-696</v>
+      </c>
+      <c r="P28">
+        <v>-154</v>
+      </c>
+      <c r="Q28">
+        <v>83</v>
+      </c>
+      <c r="R28">
+        <v>166</v>
+      </c>
+      <c r="S28">
         <v>559</v>
       </c>
-      <c r="I28">
-        <v>46</v>
-      </c>
-      <c r="J28">
-        <v>-133</v>
-      </c>
-      <c r="K28">
-        <v>-70</v>
-      </c>
-      <c r="L28">
-        <v>-433</v>
-      </c>
-      <c r="M28">
-        <v>494</v>
-      </c>
-      <c r="N28">
-        <v>-142</v>
-      </c>
-      <c r="O28">
-        <v>46</v>
-      </c>
-      <c r="P28">
-        <v>-270</v>
-      </c>
-      <c r="Q28">
-        <v>-472</v>
-      </c>
-      <c r="R28">
-        <v>542</v>
-      </c>
-      <c r="S28">
-        <v>-154</v>
-      </c>
       <c r="T28">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="U28">
-        <v>83</v>
+        <v>-79</v>
       </c>
       <c r="V28">
-        <v>393</v>
+        <v>-91</v>
       </c>
       <c r="W28">
-        <v>-555</v>
+        <v>-590</v>
       </c>
       <c r="X28">
-        <v>4</v>
+        <v>-305</v>
       </c>
       <c r="Y28">
-        <v>-79</v>
+        <v>69</v>
       </c>
       <c r="Z28">
-        <v>-12</v>
+        <v>156</v>
       </c>
       <c r="AA28">
-        <v>-499</v>
+        <v>-288</v>
       </c>
       <c r="AB28">
-        <v>285</v>
-      </c>
-      <c r="AC28">
-        <v>-305</v>
-      </c>
-      <c r="AD28">
-        <v>69</v>
-      </c>
-      <c r="AE28">
-        <v>87</v>
-      </c>
-      <c r="AF28">
-        <v>-444</v>
-      </c>
-      <c r="AG28">
-        <v>-305</v>
-      </c>
-      <c r="AH28">
         <v>-593</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D29">
         <v>133</v>
@@ -3725,102 +3194,84 @@
         <v>9</v>
       </c>
       <c r="F29">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G29">
-        <v>-83</v>
+        <v>-52</v>
       </c>
       <c r="H29">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="I29">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J29">
-        <v>58</v>
+        <v>-23</v>
       </c>
       <c r="K29">
-        <v>-81</v>
+        <v>-60</v>
       </c>
       <c r="L29">
-        <v>-37</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="N29">
-        <v>33</v>
+        <v>-46</v>
       </c>
       <c r="O29">
-        <v>40</v>
+        <v>-64</v>
       </c>
       <c r="P29">
-        <v>-86</v>
+        <v>-18</v>
       </c>
       <c r="Q29">
-        <v>-18</v>
+        <v>-25</v>
       </c>
       <c r="R29">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="S29">
-        <v>-18</v>
+        <v>8</v>
       </c>
       <c r="T29">
-        <v>-25</v>
+        <v>105</v>
       </c>
       <c r="U29">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="V29">
-        <v>-21</v>
+        <v>134</v>
       </c>
       <c r="W29">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="X29">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="Y29">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="Z29">
-        <v>8</v>
+        <v>-98</v>
       </c>
       <c r="AA29">
-        <v>-97</v>
+        <v>-168</v>
       </c>
       <c r="AB29">
-        <v>27</v>
-      </c>
-      <c r="AC29">
-        <v>64</v>
-      </c>
-      <c r="AD29">
-        <v>10</v>
-      </c>
-      <c r="AE29">
-        <v>-108</v>
-      </c>
-      <c r="AF29">
-        <v>-70</v>
-      </c>
-      <c r="AG29">
-        <v>126</v>
-      </c>
-      <c r="AH29">
         <v>-42</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D30">
         <v>-47</v>
@@ -3829,102 +3280,84 @@
         <v>-20</v>
       </c>
       <c r="F30">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G30">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="H30">
-        <v>-148</v>
+        <v>146</v>
       </c>
       <c r="I30">
-        <v>146</v>
+        <v>-135</v>
       </c>
       <c r="J30">
-        <v>-135</v>
+        <v>-49</v>
       </c>
       <c r="K30">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="L30">
+        <v>-90</v>
+      </c>
+      <c r="M30">
+        <v>-120</v>
+      </c>
+      <c r="N30">
         <v>104</v>
       </c>
-      <c r="M30">
-        <v>-145</v>
-      </c>
-      <c r="N30">
-        <v>-90</v>
-      </c>
       <c r="O30">
-        <v>-120</v>
+        <v>90</v>
       </c>
       <c r="P30">
-        <v>224</v>
+        <v>-78</v>
       </c>
       <c r="Q30">
-        <v>-14</v>
+        <v>-100</v>
       </c>
       <c r="R30">
+        <v>147</v>
+      </c>
+      <c r="S30">
+        <v>129</v>
+      </c>
+      <c r="T30">
+        <v>66</v>
+      </c>
+      <c r="U30">
+        <v>-203</v>
+      </c>
+      <c r="V30">
+        <v>467</v>
+      </c>
+      <c r="W30">
+        <v>1120</v>
+      </c>
+      <c r="X30">
+        <v>564</v>
+      </c>
+      <c r="Y30">
+        <v>-205</v>
+      </c>
+      <c r="Z30">
         <v>-168</v>
       </c>
-      <c r="S30">
-        <v>-78</v>
-      </c>
-      <c r="T30">
-        <v>-100</v>
-      </c>
-      <c r="U30">
-        <v>247</v>
-      </c>
-      <c r="V30">
-        <v>-18</v>
-      </c>
-      <c r="W30">
-        <v>-63</v>
-      </c>
-      <c r="X30">
-        <v>66</v>
-      </c>
-      <c r="Y30">
-        <v>-203</v>
-      </c>
-      <c r="Z30">
-        <v>670</v>
-      </c>
       <c r="AA30">
-        <v>653</v>
+        <v>-119</v>
       </c>
       <c r="AB30">
-        <v>-556</v>
-      </c>
-      <c r="AC30">
-        <v>564</v>
-      </c>
-      <c r="AD30">
-        <v>-205</v>
-      </c>
-      <c r="AE30">
-        <v>37</v>
-      </c>
-      <c r="AF30">
-        <v>49</v>
-      </c>
-      <c r="AG30">
-        <v>305</v>
-      </c>
-      <c r="AH30">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D31">
         <v>-41</v>
@@ -3933,102 +3366,84 @@
         <v>-67</v>
       </c>
       <c r="F31">
-        <v>47</v>
+        <v>-20</v>
       </c>
       <c r="G31">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H31">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I31">
-        <v>76</v>
+        <v>-50</v>
       </c>
       <c r="J31">
-        <v>-50</v>
+        <v>-111</v>
       </c>
       <c r="K31">
-        <v>-61</v>
+        <v>-46</v>
       </c>
       <c r="L31">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>80</v>
+        <v>-232</v>
       </c>
       <c r="N31">
-        <v>34</v>
+        <v>-180</v>
       </c>
       <c r="O31">
-        <v>-232</v>
+        <v>-148</v>
       </c>
       <c r="P31">
-        <v>52</v>
+        <v>-196</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>-37</v>
       </c>
       <c r="R31">
-        <v>-48</v>
+        <v>-14</v>
       </c>
       <c r="S31">
-        <v>-196</v>
+        <v>28</v>
       </c>
       <c r="T31">
-        <v>-37</v>
+        <v>110</v>
       </c>
       <c r="U31">
-        <v>23</v>
+        <v>-86</v>
       </c>
       <c r="V31">
-        <v>42</v>
+        <v>-40</v>
       </c>
       <c r="W31">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="X31">
-        <v>110</v>
+        <v>-14</v>
       </c>
       <c r="Y31">
-        <v>-86</v>
+        <v>40</v>
       </c>
       <c r="Z31">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="AA31">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="AB31">
-        <v>-112</v>
-      </c>
-      <c r="AC31">
-        <v>-14</v>
-      </c>
-      <c r="AD31">
-        <v>40</v>
-      </c>
-      <c r="AE31">
-        <v>43</v>
-      </c>
-      <c r="AF31">
-        <v>156</v>
-      </c>
-      <c r="AG31">
-        <v>-67</v>
-      </c>
-      <c r="AH31">
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4073,66 +3488,48 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32">
-        <v>43</v>
+        <v>-322</v>
       </c>
       <c r="V32">
-        <v>46</v>
+        <v>-232</v>
       </c>
       <c r="W32">
-        <v>-89</v>
+        <v>-206</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>-304</v>
       </c>
       <c r="Y32">
-        <v>-322</v>
+        <v>-18</v>
       </c>
       <c r="Z32">
-        <v>90</v>
+        <v>-55</v>
       </c>
       <c r="AA32">
-        <v>26</v>
+        <v>-94</v>
       </c>
       <c r="AB32">
-        <v>-98</v>
-      </c>
-      <c r="AC32">
-        <v>-304</v>
-      </c>
-      <c r="AD32">
-        <v>-18</v>
-      </c>
-      <c r="AE32">
-        <v>-37</v>
-      </c>
-      <c r="AF32">
-        <v>-39</v>
-      </c>
-      <c r="AG32">
-        <v>9</v>
-      </c>
-      <c r="AH32">
         <v>-85</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
         <v>61</v>
-      </c>
-      <c r="C33" t="s">
-        <v>67</v>
       </c>
       <c r="D33">
         <v>29</v>
@@ -4141,102 +3538,84 @@
         <v>-2</v>
       </c>
       <c r="F33">
-        <v>-21</v>
+        <v>-23</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>-18</v>
       </c>
       <c r="H33">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="I33">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K33">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N33">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="O33">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="P33">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Q33">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R33">
-        <v>-6</v>
+        <v>24</v>
       </c>
       <c r="S33">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="T33">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>10</v>
+        <v>-18</v>
       </c>
       <c r="V33">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="W33">
-        <v>-19</v>
+        <v>54</v>
       </c>
       <c r="X33">
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>-18</v>
+        <v>41</v>
       </c>
       <c r="Z33">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="AA33">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AB33">
-        <v>-54</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>41</v>
-      </c>
-      <c r="AE33">
-        <v>16</v>
-      </c>
-      <c r="AF33">
-        <v>-8</v>
-      </c>
-      <c r="AG33">
-        <v>-49</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4281,66 +3660,48 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>-64</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
       <c r="U34">
-        <v>-64</v>
+        <v>-20</v>
       </c>
       <c r="V34">
-        <v>4</v>
+        <v>-48</v>
       </c>
       <c r="W34">
-        <v>60</v>
+        <v>-131</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>-189</v>
       </c>
       <c r="Y34">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="Z34">
-        <v>-28</v>
+        <v>-39</v>
       </c>
       <c r="AA34">
-        <v>-83</v>
+        <v>-73</v>
       </c>
       <c r="AB34">
-        <v>-58</v>
-      </c>
-      <c r="AC34">
-        <v>-189</v>
-      </c>
-      <c r="AD34">
-        <v>-15</v>
-      </c>
-      <c r="AE34">
-        <v>-24</v>
-      </c>
-      <c r="AF34">
-        <v>-34</v>
-      </c>
-      <c r="AG34">
-        <v>-29</v>
-      </c>
-      <c r="AH34">
         <v>-102</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D35">
         <v>-24</v>
@@ -4349,61 +3710,61 @@
         <v>46</v>
       </c>
       <c r="F35">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="G35">
-        <v>-12</v>
+        <v>80</v>
       </c>
       <c r="H35">
-        <v>-61</v>
+        <v>19</v>
       </c>
       <c r="I35">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="J35">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="K35">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>-52</v>
       </c>
       <c r="M35">
-        <v>-240</v>
+        <v>31</v>
       </c>
       <c r="N35">
-        <v>-52</v>
+        <v>62</v>
       </c>
       <c r="O35">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="P35">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="Q35">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="R35">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="U35">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -4417,34 +3778,16 @@
       <c r="AB35">
         <v>0</v>
       </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -4486,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -4495,19 +3838,19 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>54</v>
+        <v>-61</v>
       </c>
       <c r="U36">
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -4521,34 +3864,16 @@
       <c r="AB36">
         <v>0</v>
       </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4611,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -4623,36 +3948,18 @@
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>12</v>
-      </c>
-      <c r="AC37">
-        <v>12</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
         <v>-3</v>
       </c>
-      <c r="AH37">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D38">
         <v>1594</v>
@@ -4661,102 +3968,84 @@
         <v>168</v>
       </c>
       <c r="F38">
-        <v>566</v>
+        <v>734</v>
       </c>
       <c r="G38">
-        <v>66</v>
+        <v>800</v>
       </c>
       <c r="H38">
-        <v>919</v>
+        <v>1719</v>
       </c>
       <c r="I38">
-        <v>1719</v>
+        <v>91</v>
       </c>
       <c r="J38">
-        <v>91</v>
+        <v>486</v>
       </c>
       <c r="K38">
-        <v>395</v>
+        <v>600</v>
       </c>
       <c r="L38">
-        <v>114</v>
+        <v>1380</v>
       </c>
       <c r="M38">
-        <v>780</v>
+        <v>-66</v>
       </c>
       <c r="N38">
-        <v>1380</v>
+        <v>546</v>
       </c>
       <c r="O38">
-        <v>-66</v>
+        <v>567</v>
       </c>
       <c r="P38">
-        <v>612</v>
+        <v>1381</v>
       </c>
       <c r="Q38">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="R38">
-        <v>814</v>
+        <v>583</v>
       </c>
       <c r="S38">
-        <v>1381</v>
+        <v>528</v>
       </c>
       <c r="T38">
-        <v>29</v>
+        <v>1411</v>
       </c>
       <c r="U38">
-        <v>554</v>
+        <v>-940</v>
       </c>
       <c r="V38">
-        <v>-55</v>
+        <v>-87</v>
       </c>
       <c r="W38">
-        <v>883</v>
+        <v>399</v>
       </c>
       <c r="X38">
-        <v>1411</v>
+        <v>237</v>
       </c>
       <c r="Y38">
-        <v>-940</v>
+        <v>340</v>
       </c>
       <c r="Z38">
-        <v>853</v>
+        <v>792</v>
       </c>
       <c r="AA38">
-        <v>486</v>
+        <v>682</v>
       </c>
       <c r="AB38">
-        <v>-162</v>
-      </c>
-      <c r="AC38">
-        <v>237</v>
-      </c>
-      <c r="AD38">
-        <v>340</v>
-      </c>
-      <c r="AE38">
-        <v>452</v>
-      </c>
-      <c r="AF38">
-        <v>-110</v>
-      </c>
-      <c r="AG38">
-        <v>127</v>
-      </c>
-      <c r="AH38">
         <v>809</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D39">
         <v>-726</v>
@@ -4765,102 +4054,84 @@
         <v>-139</v>
       </c>
       <c r="F39">
-        <v>-131</v>
+        <v>-270</v>
       </c>
       <c r="G39">
-        <v>-113</v>
+        <v>-383</v>
       </c>
       <c r="H39">
-        <v>-141</v>
+        <v>-524</v>
       </c>
       <c r="I39">
-        <v>-524</v>
+        <v>-110</v>
       </c>
       <c r="J39">
-        <v>-110</v>
+        <v>-275</v>
       </c>
       <c r="K39">
+        <v>-463</v>
+      </c>
+      <c r="L39">
+        <v>-731</v>
+      </c>
+      <c r="M39">
+        <v>-138</v>
+      </c>
+      <c r="N39">
+        <v>-326</v>
+      </c>
+      <c r="O39">
+        <v>-510</v>
+      </c>
+      <c r="P39">
+        <v>-705</v>
+      </c>
+      <c r="Q39">
         <v>-165</v>
       </c>
-      <c r="L39">
-        <v>-188</v>
-      </c>
-      <c r="M39">
-        <v>-268</v>
-      </c>
-      <c r="N39">
-        <v>-731</v>
-      </c>
-      <c r="O39">
-        <v>-138</v>
-      </c>
-      <c r="P39">
-        <v>-188</v>
-      </c>
-      <c r="Q39">
-        <v>-184</v>
-      </c>
       <c r="R39">
-        <v>-195</v>
+        <v>-324</v>
       </c>
       <c r="S39">
-        <v>-705</v>
+        <v>-523</v>
       </c>
       <c r="T39">
-        <v>-165</v>
+        <v>-702</v>
       </c>
       <c r="U39">
-        <v>-159</v>
+        <v>-122</v>
       </c>
       <c r="V39">
-        <v>-199</v>
+        <v>-208</v>
       </c>
       <c r="W39">
-        <v>-179</v>
+        <v>-288</v>
       </c>
       <c r="X39">
-        <v>-702</v>
+        <v>-392</v>
       </c>
       <c r="Y39">
-        <v>-122</v>
+        <v>-124</v>
       </c>
       <c r="Z39">
-        <v>-86</v>
+        <v>-269</v>
       </c>
       <c r="AA39">
-        <v>-80</v>
+        <v>-486</v>
       </c>
       <c r="AB39">
-        <v>-104</v>
-      </c>
-      <c r="AC39">
-        <v>-392</v>
-      </c>
-      <c r="AD39">
-        <v>-124</v>
-      </c>
-      <c r="AE39">
-        <v>-145</v>
-      </c>
-      <c r="AF39">
-        <v>-217</v>
-      </c>
-      <c r="AG39">
-        <v>-208</v>
-      </c>
-      <c r="AH39">
         <v>-694</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -4890,81 +4161,63 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-167</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>-322</v>
       </c>
       <c r="O40">
-        <v>-167</v>
+        <v>-408</v>
       </c>
       <c r="P40">
-        <v>-155</v>
+        <v>-464</v>
       </c>
       <c r="Q40">
-        <v>-86</v>
+        <v>-69</v>
       </c>
       <c r="R40">
-        <v>-56</v>
+        <v>-150</v>
       </c>
       <c r="S40">
-        <v>-464</v>
+        <v>-235</v>
       </c>
       <c r="T40">
-        <v>-69</v>
+        <v>-293</v>
       </c>
       <c r="U40">
-        <v>-81</v>
+        <v>-59</v>
       </c>
       <c r="V40">
-        <v>-85</v>
+        <v>-59</v>
       </c>
       <c r="W40">
-        <v>-58</v>
+        <v>-237</v>
       </c>
       <c r="X40">
-        <v>-293</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>-59</v>
+        <v>-298</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-427</v>
       </c>
       <c r="AA40">
-        <v>-178</v>
+        <v>-634</v>
       </c>
       <c r="AB40">
-        <v>237</v>
-      </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>-298</v>
-      </c>
-      <c r="AE40">
-        <v>-129</v>
-      </c>
-      <c r="AF40">
-        <v>-207</v>
-      </c>
-      <c r="AG40">
-        <v>634</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -4994,81 +4247,63 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="P41">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="R41">
-        <v>-112</v>
+        <v>146</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="T41">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>60</v>
+        <v>297</v>
       </c>
       <c r="V41">
-        <v>85</v>
+        <v>325</v>
       </c>
       <c r="W41">
-        <v>-231</v>
+        <v>348</v>
       </c>
       <c r="X41">
         <v>0</v>
       </c>
       <c r="Y41">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="Z41">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="AA41">
-        <v>23</v>
+        <v>768</v>
       </c>
       <c r="AB41">
-        <v>-348</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>233</v>
-      </c>
-      <c r="AE41">
-        <v>267</v>
-      </c>
-      <c r="AF41">
-        <v>268</v>
-      </c>
-      <c r="AG41">
-        <v>-768</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5140,39 +4375,21 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>-135</v>
       </c>
       <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
-      <c r="AF42">
         <v>-135</v>
       </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>-135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5190,22 +4407,22 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J43">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="M43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -5249,34 +4466,16 @@
       <c r="AB43">
         <v>0</v>
       </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
         <v>73</v>
-      </c>
-      <c r="C44" t="s">
-        <v>79</v>
       </c>
       <c r="D44">
         <v>-4</v>
@@ -5285,16 +4484,16 @@
         <v>-1</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H44">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="I44">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="J44">
         <v>-3</v>
@@ -5303,28 +4502,28 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M44">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="N44">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="O44">
         <v>-7</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="Q44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -5333,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -5345,42 +4544,24 @@
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB44">
         <v>0</v>
       </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -5422,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="T45">
         <v>220</v>
@@ -5443,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -5457,34 +4638,16 @@
       <c r="AB45">
         <v>0</v>
       </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -5526,13 +4689,13 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-69</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>-69</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>-69</v>
       </c>
       <c r="T46">
         <v>-69</v>
@@ -5547,13 +4710,13 @@
         <v>0</v>
       </c>
       <c r="X46">
-        <v>-69</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="AA46">
         <v>0</v>
@@ -5561,34 +4724,16 @@
       <c r="AB46">
         <v>0</v>
       </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>28</v>
-      </c>
-      <c r="AE46">
-        <v>-49</v>
-      </c>
-      <c r="AF46">
-        <v>21</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -5633,16 +4778,16 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>-343</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>-343</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>-343</v>
       </c>
       <c r="U47">
-        <v>-343</v>
+        <v>0</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -5651,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>-343</v>
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -5665,34 +4810,16 @@
       <c r="AB47">
         <v>0</v>
       </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <v>0</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -5731,19 +4858,19 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="S48">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -5752,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="X48">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -5769,34 +4896,16 @@
       <c r="AB48">
         <v>0</v>
       </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -5873,34 +4982,16 @@
       <c r="AB49">
         <v>0</v>
       </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -5977,34 +5068,16 @@
       <c r="AB50">
         <v>0</v>
       </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6067,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>-508</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -6079,36 +5152,18 @@
         <v>0</v>
       </c>
       <c r="AB51">
-        <v>-508</v>
-      </c>
-      <c r="AC51">
-        <v>-508</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>0</v>
-      </c>
-      <c r="AG51">
         <v>-753</v>
       </c>
-      <c r="AH51">
-        <v>-753</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -6171,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -6183,36 +5238,18 @@
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>388</v>
-      </c>
-      <c r="AC52">
-        <v>388</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
-      <c r="AG52">
         <v>1162</v>
       </c>
-      <c r="AH52">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -6284,39 +5321,21 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
         <v>-21</v>
       </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D54">
         <v>-730</v>
@@ -6325,61 +5344,61 @@
         <v>-140</v>
       </c>
       <c r="F54">
-        <v>-131</v>
+        <v>-271</v>
       </c>
       <c r="G54">
-        <v>-113</v>
+        <v>-384</v>
       </c>
       <c r="H54">
-        <v>-145</v>
+        <v>-529</v>
       </c>
       <c r="I54">
-        <v>-529</v>
+        <v>-99</v>
       </c>
       <c r="J54">
-        <v>-99</v>
+        <v>-219</v>
       </c>
       <c r="K54">
-        <v>-120</v>
+        <v>-403</v>
       </c>
       <c r="L54">
-        <v>-184</v>
+        <v>-666</v>
       </c>
       <c r="M54">
-        <v>-263</v>
+        <v>-309</v>
       </c>
       <c r="N54">
-        <v>-666</v>
+        <v>-618</v>
       </c>
       <c r="O54">
-        <v>-309</v>
+        <v>-813</v>
       </c>
       <c r="P54">
-        <v>-309</v>
+        <v>-1001</v>
       </c>
       <c r="Q54">
-        <v>-195</v>
+        <v>-340</v>
       </c>
       <c r="R54">
-        <v>-188</v>
+        <v>0</v>
       </c>
       <c r="S54">
-        <v>-1001</v>
+        <v>0</v>
       </c>
       <c r="T54">
-        <v>-340</v>
+        <v>-894</v>
       </c>
       <c r="U54">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
       <c r="W54">
-        <v>-894</v>
+        <v>0</v>
       </c>
       <c r="X54">
-        <v>-894</v>
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -6393,34 +5412,16 @@
       <c r="AB54">
         <v>0</v>
       </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -6465,63 +5466,45 @@
         <v>0</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>-520</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>-719</v>
       </c>
       <c r="T55">
         <v>0</v>
       </c>
       <c r="U55">
-        <v>-520</v>
+        <v>116</v>
       </c>
       <c r="V55">
-        <v>-199</v>
+        <v>60</v>
       </c>
       <c r="W55">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="X55">
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>116</v>
+        <v>-161</v>
       </c>
       <c r="Z55">
-        <v>-56</v>
+        <v>-217</v>
       </c>
       <c r="AA55">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="AB55">
         <v>0</v>
       </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>-161</v>
-      </c>
-      <c r="AE55">
-        <v>-56</v>
-      </c>
-      <c r="AF55">
-        <v>217</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -6581,10 +5564,10 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -6593,36 +5576,18 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB56">
-        <v>0</v>
-      </c>
-      <c r="AC56">
-        <v>2</v>
-      </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-      <c r="AF56">
-        <v>0</v>
-      </c>
-      <c r="AG56">
         <v>-5</v>
       </c>
-      <c r="AH56">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -6664,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>-343</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -6673,10 +5638,10 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>-343</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -6699,31 +5664,13 @@
       <c r="AB57">
         <v>0</v>
       </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <v>0</v>
-      </c>
-      <c r="AF57">
-        <v>0</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -6783,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>0</v>
+        <v>-175</v>
       </c>
       <c r="X58">
         <v>0</v>
@@ -6795,36 +5742,18 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>-175</v>
+        <v>-508</v>
       </c>
       <c r="AB58">
-        <v>175</v>
-      </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
-      <c r="AE58">
-        <v>0</v>
-      </c>
-      <c r="AF58">
-        <v>-508</v>
-      </c>
-      <c r="AG58">
-        <v>508</v>
-      </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -6887,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="X59">
-        <v>0</v>
+        <v>-510</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -6899,36 +5828,18 @@
         <v>0</v>
       </c>
       <c r="AB59">
-        <v>-510</v>
-      </c>
-      <c r="AC59">
-        <v>-510</v>
-      </c>
-      <c r="AD59">
-        <v>0</v>
-      </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <v>0</v>
-      </c>
-      <c r="AG59">
         <v>-446</v>
       </c>
-      <c r="AH59">
-        <v>-446</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -6982,19 +5893,19 @@
         <v>0</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W60">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X60">
         <v>0</v>
       </c>
       <c r="Y60">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -7003,36 +5914,18 @@
         <v>0</v>
       </c>
       <c r="AB60">
-        <v>-500</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
-      <c r="AF60">
-        <v>0</v>
-      </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D61">
         <v>65</v>
@@ -7041,102 +5934,84 @@
         <v>10</v>
       </c>
       <c r="F61">
+        <v>16</v>
+      </c>
+      <c r="G61">
+        <v>25</v>
+      </c>
+      <c r="H61">
+        <v>29</v>
+      </c>
+      <c r="I61">
+        <v>8</v>
+      </c>
+      <c r="J61">
+        <v>14</v>
+      </c>
+      <c r="K61">
+        <v>23</v>
+      </c>
+      <c r="L61">
+        <v>30</v>
+      </c>
+      <c r="M61">
+        <v>20</v>
+      </c>
+      <c r="N61">
+        <v>33</v>
+      </c>
+      <c r="O61">
+        <v>40</v>
+      </c>
+      <c r="P61">
+        <v>46</v>
+      </c>
+      <c r="Q61">
+        <v>10</v>
+      </c>
+      <c r="R61">
+        <v>17</v>
+      </c>
+      <c r="S61">
+        <v>22</v>
+      </c>
+      <c r="T61">
+        <v>25</v>
+      </c>
+      <c r="U61">
         <v>6</v>
       </c>
-      <c r="G61">
-        <v>9</v>
-      </c>
-      <c r="H61">
-        <v>4</v>
-      </c>
-      <c r="I61">
-        <v>29</v>
-      </c>
-      <c r="J61">
-        <v>8</v>
-      </c>
-      <c r="K61">
-        <v>6</v>
-      </c>
-      <c r="L61">
-        <v>9</v>
-      </c>
-      <c r="M61">
-        <v>7</v>
-      </c>
-      <c r="N61">
-        <v>30</v>
-      </c>
-      <c r="O61">
-        <v>20</v>
-      </c>
-      <c r="P61">
-        <v>13</v>
-      </c>
-      <c r="Q61">
-        <v>7</v>
-      </c>
-      <c r="R61">
-        <v>6</v>
-      </c>
-      <c r="S61">
-        <v>46</v>
-      </c>
-      <c r="T61">
-        <v>10</v>
-      </c>
-      <c r="U61">
-        <v>7</v>
-      </c>
       <c r="V61">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="W61">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="X61">
+        <v>22</v>
+      </c>
+      <c r="Y61">
         <v>25</v>
       </c>
-      <c r="Y61">
-        <v>6</v>
-      </c>
       <c r="Z61">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="AA61">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="AB61">
-        <v>6</v>
-      </c>
-      <c r="AC61">
-        <v>22</v>
-      </c>
-      <c r="AD61">
-        <v>25</v>
-      </c>
-      <c r="AE61">
-        <v>16</v>
-      </c>
-      <c r="AF61">
-        <v>7</v>
-      </c>
-      <c r="AG61">
-        <v>6</v>
-      </c>
-      <c r="AH61">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D62">
         <v>-69</v>
@@ -7145,102 +6020,84 @@
         <v>-17</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="G62">
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="H62">
-        <v>-1</v>
+        <v>-19</v>
       </c>
       <c r="I62">
+        <v>-13</v>
+      </c>
+      <c r="J62">
+        <v>-14</v>
+      </c>
+      <c r="K62">
+        <v>-15</v>
+      </c>
+      <c r="L62">
+        <v>-18</v>
+      </c>
+      <c r="M62">
         <v>-19</v>
       </c>
-      <c r="J62">
-        <v>-13</v>
-      </c>
-      <c r="K62">
-        <v>-1</v>
-      </c>
-      <c r="L62">
-        <v>-1</v>
-      </c>
-      <c r="M62">
-        <v>-3</v>
-      </c>
       <c r="N62">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="O62">
+        <v>-22</v>
+      </c>
+      <c r="P62">
+        <v>-23</v>
+      </c>
+      <c r="Q62">
         <v>-19</v>
       </c>
-      <c r="P62">
-        <v>-1</v>
-      </c>
-      <c r="Q62">
-        <v>-2</v>
-      </c>
       <c r="R62">
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="S62">
-        <v>-23</v>
+        <v>-21</v>
       </c>
       <c r="T62">
-        <v>-19</v>
+        <v>-21</v>
       </c>
       <c r="U62">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="V62">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="W62">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="X62">
-        <v>-21</v>
+        <v>-9</v>
       </c>
       <c r="Y62">
-        <v>-7</v>
+        <v>-32</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>-32</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
-      </c>
-      <c r="AC62">
-        <v>-9</v>
-      </c>
-      <c r="AD62">
-        <v>-32</v>
-      </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
-      <c r="AF62">
-        <v>-2</v>
-      </c>
-      <c r="AG62">
-        <v>-2</v>
-      </c>
-      <c r="AH62">
         <v>-36</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D63">
         <v>-1015</v>
@@ -7258,93 +6115,75 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>-96</v>
       </c>
       <c r="J63">
-        <v>-96</v>
+        <v>-200</v>
       </c>
       <c r="K63">
-        <v>-104</v>
+        <v>-300</v>
       </c>
       <c r="L63">
+        <v>-315</v>
+      </c>
+      <c r="M63">
         <v>-100</v>
       </c>
-      <c r="M63">
-        <v>-15</v>
-      </c>
       <c r="N63">
-        <v>-315</v>
+        <v>-200</v>
       </c>
       <c r="O63">
+        <v>-300</v>
+      </c>
+      <c r="P63">
+        <v>-398</v>
+      </c>
+      <c r="Q63">
+        <v>-50</v>
+      </c>
+      <c r="R63">
         <v>-100</v>
       </c>
-      <c r="P63">
-        <v>-100</v>
-      </c>
-      <c r="Q63">
-        <v>-100</v>
-      </c>
-      <c r="R63">
-        <v>-98</v>
-      </c>
       <c r="S63">
-        <v>-398</v>
+        <v>-150</v>
       </c>
       <c r="T63">
-        <v>-50</v>
+        <v>-200</v>
       </c>
       <c r="U63">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="X63">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>0</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="AA63">
-        <v>0</v>
+        <v>-128</v>
       </c>
       <c r="AB63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <v>-55</v>
-      </c>
-      <c r="AF63">
-        <v>-73</v>
-      </c>
-      <c r="AG63">
-        <v>-73</v>
-      </c>
-      <c r="AH63">
         <v>-201</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D64">
         <v>-377</v>
@@ -7353,103 +6192,85 @@
         <v>-91</v>
       </c>
       <c r="F64">
+        <v>-183</v>
+      </c>
+      <c r="G64">
+        <v>-275</v>
+      </c>
+      <c r="H64">
+        <v>-367</v>
+      </c>
+      <c r="I64">
         <v>-92</v>
       </c>
-      <c r="G64">
+      <c r="J64">
+        <v>-182</v>
+      </c>
+      <c r="K64">
+        <v>-272</v>
+      </c>
+      <c r="L64">
+        <v>-361</v>
+      </c>
+      <c r="M64">
+        <v>-94</v>
+      </c>
+      <c r="N64">
+        <v>-188</v>
+      </c>
+      <c r="O64">
+        <v>-281</v>
+      </c>
+      <c r="P64">
+        <v>-373</v>
+      </c>
+      <c r="Q64">
         <v>-92</v>
       </c>
-      <c r="H64">
-        <v>-92</v>
-      </c>
-      <c r="I64">
-        <v>-367</v>
-      </c>
-      <c r="J64">
-        <v>-92</v>
-      </c>
-      <c r="K64">
-        <v>-90</v>
-      </c>
-      <c r="L64">
-        <v>-90</v>
-      </c>
-      <c r="M64">
-        <v>-89</v>
-      </c>
-      <c r="N64">
-        <v>-361</v>
-      </c>
-      <c r="O64">
-        <v>-94</v>
-      </c>
-      <c r="P64">
-        <v>-94</v>
-      </c>
-      <c r="Q64">
-        <v>-93</v>
-      </c>
       <c r="R64">
-        <v>-92</v>
+        <v>-183</v>
       </c>
       <c r="S64">
-        <v>-373</v>
+        <v>-274</v>
       </c>
       <c r="T64">
-        <v>-92</v>
+        <v>-364</v>
       </c>
       <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
         <v>-91</v>
       </c>
-      <c r="V64">
-        <v>-91</v>
-      </c>
-      <c r="W64">
-        <v>-90</v>
-      </c>
-      <c r="X64">
-        <v>-364</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
       <c r="Z64">
-        <v>0</v>
+        <v>-137</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>-182</v>
       </c>
       <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64">
-        <v>-91</v>
-      </c>
-      <c r="AE64">
-        <v>-46</v>
-      </c>
-      <c r="AF64">
-        <v>-45</v>
-      </c>
-      <c r="AG64">
-        <v>-44</v>
-      </c>
-      <c r="AH64">
         <v>-226</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" t="s">
         <v>91</v>
       </c>
-      <c r="C65" t="s">
-        <v>97</v>
-      </c>
       <c r="D65">
         <v>0</v>
       </c>
@@ -7505,54 +6326,36 @@
         <v>0</v>
       </c>
       <c r="V65">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="X65">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="Y65">
         <v>0</v>
       </c>
       <c r="Z65">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>2250</v>
-      </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <v>0</v>
-      </c>
-      <c r="AF65">
         <v>1500</v>
       </c>
-      <c r="AG65">
-        <v>0</v>
-      </c>
-      <c r="AH65">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -7612,10 +6415,10 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>0</v>
+        <v>-1307</v>
       </c>
       <c r="X66">
-        <v>0</v>
+        <v>-1307</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -7624,39 +6427,21 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>-1307</v>
+        <v>-2546</v>
       </c>
       <c r="AB66">
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <v>-1307</v>
-      </c>
-      <c r="AD66">
-        <v>0</v>
-      </c>
-      <c r="AE66">
-        <v>0</v>
-      </c>
-      <c r="AF66">
         <v>-2546</v>
       </c>
-      <c r="AG66">
-        <v>0</v>
-      </c>
-      <c r="AH66">
-        <v>-2546</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -7716,10 +6501,10 @@
         <v>0</v>
       </c>
       <c r="W67">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="Y67">
         <v>0</v>
@@ -7728,39 +6513,21 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>-61</v>
+        <v>-16</v>
       </c>
       <c r="AB67">
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <v>-61</v>
-      </c>
-      <c r="AD67">
-        <v>0</v>
-      </c>
-      <c r="AE67">
-        <v>0</v>
-      </c>
-      <c r="AF67">
         <v>-16</v>
       </c>
-      <c r="AG67">
-        <v>0</v>
-      </c>
-      <c r="AH67">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -7817,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="W68">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="X68">
         <v>0</v>
@@ -7829,42 +6596,24 @@
         <v>0</v>
       </c>
       <c r="Z68">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="AA68">
         <v>0</v>
       </c>
       <c r="AB68">
-        <v>500</v>
-      </c>
-      <c r="AC68">
-        <v>0</v>
-      </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
-      <c r="AE68">
-        <v>0</v>
-      </c>
-      <c r="AF68">
-        <v>0</v>
-      </c>
-      <c r="AG68">
-        <v>0</v>
-      </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -7885,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>-67</v>
       </c>
       <c r="K69">
         <v>-67</v>
@@ -7894,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -7941,34 +6690,16 @@
       <c r="AB69">
         <v>0</v>
       </c>
-      <c r="AC69">
-        <v>0</v>
-      </c>
-      <c r="AD69">
-        <v>0</v>
-      </c>
-      <c r="AE69">
-        <v>0</v>
-      </c>
-      <c r="AF69">
-        <v>0</v>
-      </c>
-      <c r="AG69">
-        <v>0</v>
-      </c>
-      <c r="AH69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D70">
         <v>-1</v>
@@ -7980,7 +6711,7 @@
         <v>23</v>
       </c>
       <c r="G70">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -8001,10 +6732,10 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P70">
         <v>-1</v>
@@ -8016,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="S70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -8045,34 +6776,16 @@
       <c r="AB70">
         <v>0</v>
       </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70">
-        <v>0</v>
-      </c>
-      <c r="AE70">
-        <v>0</v>
-      </c>
-      <c r="AF70">
-        <v>0</v>
-      </c>
-      <c r="AG70">
-        <v>0</v>
-      </c>
-      <c r="AH70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -8129,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="V71">
-        <v>0</v>
+        <v>-1307</v>
       </c>
       <c r="W71">
         <v>0</v>
@@ -8141,42 +6854,24 @@
         <v>0</v>
       </c>
       <c r="Z71">
-        <v>-1307</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>1307</v>
+        <v>0</v>
       </c>
       <c r="AB71">
         <v>0</v>
       </c>
-      <c r="AC71">
-        <v>0</v>
-      </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-      <c r="AF71">
-        <v>0</v>
-      </c>
-      <c r="AG71">
-        <v>0</v>
-      </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -8233,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="W72">
         <v>0</v>
@@ -8245,42 +6940,24 @@
         <v>0</v>
       </c>
       <c r="Z72">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AB72">
         <v>0</v>
       </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
-      <c r="AE72">
-        <v>0</v>
-      </c>
-      <c r="AF72">
-        <v>0</v>
-      </c>
-      <c r="AG72">
-        <v>0</v>
-      </c>
-      <c r="AH72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D73">
         <v>28</v>
@@ -8289,16 +6966,16 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -8357,31 +7034,13 @@
       <c r="AB73">
         <v>0</v>
       </c>
-      <c r="AC73">
-        <v>0</v>
-      </c>
-      <c r="AD73">
-        <v>0</v>
-      </c>
-      <c r="AE73">
-        <v>0</v>
-      </c>
-      <c r="AF73">
-        <v>0</v>
-      </c>
-      <c r="AG73">
-        <v>0</v>
-      </c>
-      <c r="AH73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D74">
         <v>-19</v>
@@ -8390,25 +7049,25 @@
         <v>12</v>
       </c>
       <c r="F74">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="G74">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K74">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -8458,34 +7117,16 @@
       <c r="AB74">
         <v>0</v>
       </c>
-      <c r="AC74">
-        <v>0</v>
-      </c>
-      <c r="AD74">
-        <v>0</v>
-      </c>
-      <c r="AE74">
-        <v>0</v>
-      </c>
-      <c r="AF74">
-        <v>0</v>
-      </c>
-      <c r="AG74">
-        <v>0</v>
-      </c>
-      <c r="AH74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D75">
         <v>-21</v>
@@ -8503,7 +7144,7 @@
         <v>-421</v>
       </c>
       <c r="I75">
-        <v>-421</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -8512,13 +7153,13 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>-67</v>
       </c>
       <c r="M75">
-        <v>-67</v>
+        <v>0</v>
       </c>
       <c r="N75">
-        <v>-67</v>
+        <v>0</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -8562,31 +7203,13 @@
       <c r="AB75">
         <v>0</v>
       </c>
-      <c r="AC75">
-        <v>0</v>
-      </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
-      <c r="AE75">
-        <v>0</v>
-      </c>
-      <c r="AF75">
-        <v>0</v>
-      </c>
-      <c r="AG75">
-        <v>0</v>
-      </c>
-      <c r="AH75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -8613,31 +7236,31 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M76">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O76">
         <v>0</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="Q76">
         <v>0</v>
       </c>
       <c r="R76">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="S76">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="T76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U76">
         <v>0</v>
@@ -8646,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y76">
         <v>0</v>
@@ -8663,34 +7286,16 @@
       <c r="AB76">
         <v>0</v>
       </c>
-      <c r="AC76">
-        <v>0</v>
-      </c>
-      <c r="AD76">
-        <v>0</v>
-      </c>
-      <c r="AE76">
-        <v>0</v>
-      </c>
-      <c r="AF76">
-        <v>0</v>
-      </c>
-      <c r="AG76">
-        <v>0</v>
-      </c>
-      <c r="AH76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -8753,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Y77">
         <v>0</v>
@@ -8765,36 +7370,18 @@
         <v>0</v>
       </c>
       <c r="AB77">
-        <v>500</v>
-      </c>
-      <c r="AC77">
-        <v>500</v>
-      </c>
-      <c r="AD77">
-        <v>0</v>
-      </c>
-      <c r="AE77">
-        <v>0</v>
-      </c>
-      <c r="AF77">
-        <v>0</v>
-      </c>
-      <c r="AG77">
-        <v>0</v>
-      </c>
-      <c r="AH77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -8857,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="X78">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="Y78">
         <v>0</v>
@@ -8869,36 +7456,18 @@
         <v>0</v>
       </c>
       <c r="AB78">
-        <v>-500</v>
-      </c>
-      <c r="AC78">
-        <v>-500</v>
-      </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
-      <c r="AE78">
-        <v>0</v>
-      </c>
-      <c r="AF78">
-        <v>0</v>
-      </c>
-      <c r="AG78">
-        <v>0</v>
-      </c>
-      <c r="AH78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D79">
         <v>400</v>
@@ -8975,34 +7544,16 @@
       <c r="AB79">
         <v>0</v>
       </c>
-      <c r="AC79">
-        <v>0</v>
-      </c>
-      <c r="AD79">
-        <v>0</v>
-      </c>
-      <c r="AE79">
-        <v>0</v>
-      </c>
-      <c r="AF79">
-        <v>0</v>
-      </c>
-      <c r="AG79">
-        <v>0</v>
-      </c>
-      <c r="AH79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -9047,66 +7598,48 @@
         <v>0</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>-286</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>-423</v>
       </c>
       <c r="T80">
         <v>0</v>
       </c>
       <c r="U80">
-        <v>-286</v>
+        <v>499</v>
       </c>
       <c r="V80">
-        <v>-137</v>
+        <v>886</v>
       </c>
       <c r="W80">
-        <v>423</v>
+        <v>890</v>
       </c>
       <c r="X80">
-        <v>0</v>
+        <v>895</v>
       </c>
       <c r="Y80">
-        <v>499</v>
+        <v>-98</v>
       </c>
       <c r="Z80">
-        <v>387</v>
+        <v>-183</v>
       </c>
       <c r="AA80">
-        <v>4</v>
+        <v>-1358</v>
       </c>
       <c r="AB80">
-        <v>5</v>
-      </c>
-      <c r="AC80">
-        <v>895</v>
-      </c>
-      <c r="AD80">
-        <v>-98</v>
-      </c>
-      <c r="AE80">
-        <v>-85</v>
-      </c>
-      <c r="AF80">
-        <v>-1175</v>
-      </c>
-      <c r="AG80">
-        <v>-113</v>
-      </c>
-      <c r="AH80">
         <v>-1471</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D81">
         <v>-990</v>
@@ -9115,61 +7648,61 @@
         <v>-97</v>
       </c>
       <c r="F81">
-        <v>-63</v>
+        <v>-160</v>
       </c>
       <c r="G81">
-        <v>-107</v>
+        <v>-267</v>
       </c>
       <c r="H81">
-        <v>-510</v>
+        <v>-777</v>
       </c>
       <c r="I81">
-        <v>-777</v>
+        <v>-193</v>
       </c>
       <c r="J81">
+        <v>-449</v>
+      </c>
+      <c r="K81">
+        <v>-631</v>
+      </c>
+      <c r="L81">
+        <v>-731</v>
+      </c>
+      <c r="M81">
         <v>-193</v>
       </c>
-      <c r="K81">
-        <v>-256</v>
-      </c>
-      <c r="L81">
-        <v>-182</v>
-      </c>
-      <c r="M81">
-        <v>-100</v>
-      </c>
       <c r="N81">
-        <v>-731</v>
+        <v>-376</v>
       </c>
       <c r="O81">
-        <v>-193</v>
+        <v>-564</v>
       </c>
       <c r="P81">
-        <v>-183</v>
+        <v>-749</v>
       </c>
       <c r="Q81">
-        <v>-188</v>
+        <v>-151</v>
       </c>
       <c r="R81">
-        <v>-185</v>
+        <v>0</v>
       </c>
       <c r="S81">
-        <v>-749</v>
+        <v>0</v>
       </c>
       <c r="T81">
-        <v>-151</v>
+        <v>-560</v>
       </c>
       <c r="U81">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="V81">
         <v>0</v>
       </c>
       <c r="W81">
-        <v>-560</v>
+        <v>0</v>
       </c>
       <c r="X81">
-        <v>-560</v>
+        <v>0</v>
       </c>
       <c r="Y81">
         <v>0</v>
@@ -9183,58 +7716,40 @@
       <c r="AB81">
         <v>0</v>
       </c>
-      <c r="AC81">
-        <v>0</v>
-      </c>
-      <c r="AD81">
-        <v>0</v>
-      </c>
-      <c r="AE81">
-        <v>0</v>
-      </c>
-      <c r="AF81">
-        <v>0</v>
-      </c>
-      <c r="AG81">
-        <v>0</v>
-      </c>
-      <c r="AH81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D82">
         <v>-145</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-57</v>
       </c>
       <c r="F82">
         <v>311</v>
       </c>
       <c r="G82">
-        <v>-159</v>
+        <v>152</v>
       </c>
       <c r="H82">
-        <v>-152</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>-174</v>
       </c>
       <c r="K82">
-        <v>-174</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -9284,40 +7799,22 @@
       <c r="AB82">
         <v>0</v>
       </c>
-      <c r="AC82">
-        <v>0</v>
-      </c>
-      <c r="AD82">
-        <v>0</v>
-      </c>
-      <c r="AE82">
-        <v>0</v>
-      </c>
-      <c r="AF82">
-        <v>0</v>
-      </c>
-      <c r="AG82">
-        <v>0</v>
-      </c>
-      <c r="AH82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>-57</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -9329,22 +7826,22 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -9353,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="R83">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -9362,54 +7859,36 @@
         <v>0</v>
       </c>
       <c r="U83">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="V83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X83">
         <v>0</v>
       </c>
       <c r="Y83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AB83">
         <v>0</v>
       </c>
-      <c r="AC83">
-        <v>0</v>
-      </c>
-      <c r="AD83">
-        <v>0</v>
-      </c>
-      <c r="AE83">
-        <v>0</v>
-      </c>
-      <c r="AF83">
-        <v>0</v>
-      </c>
-      <c r="AG83">
-        <v>0</v>
-      </c>
-      <c r="AH83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -9433,84 +7912,66 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>-427</v>
       </c>
       <c r="L84">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M84">
-        <v>-7</v>
+        <v>-570</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>-459</v>
       </c>
       <c r="O84">
-        <v>-2</v>
+        <v>-823</v>
       </c>
       <c r="P84">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>-2</v>
+        <v>-462</v>
       </c>
       <c r="R84">
-        <v>13</v>
+        <v>-225</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>-614</v>
       </c>
       <c r="T84">
         <v>0</v>
       </c>
       <c r="U84">
-        <v>-2</v>
+        <v>-333</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>860</v>
       </c>
       <c r="W84">
-        <v>0</v>
+        <v>1118</v>
       </c>
       <c r="X84">
         <v>0</v>
       </c>
       <c r="Y84">
-        <v>-8</v>
+        <v>80</v>
       </c>
       <c r="Z84">
-        <v>9</v>
+        <v>391</v>
       </c>
       <c r="AA84">
-        <v>3</v>
+        <v>-1187</v>
       </c>
       <c r="AB84">
-        <v>-4</v>
-      </c>
-      <c r="AC84">
-        <v>0</v>
-      </c>
-      <c r="AD84">
-        <v>-1</v>
-      </c>
-      <c r="AE84">
-        <v>0</v>
-      </c>
-      <c r="AF84">
-        <v>-2</v>
-      </c>
-      <c r="AG84">
-        <v>3</v>
-      </c>
-      <c r="AH84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -9534,84 +7995,66 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>1797</v>
       </c>
       <c r="L85">
-        <v>-427</v>
+        <v>0</v>
       </c>
       <c r="M85">
-        <v>427</v>
+        <v>1799</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>1799</v>
       </c>
       <c r="O85">
-        <v>-570</v>
+        <v>1799</v>
       </c>
       <c r="P85">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>-364</v>
+        <v>1420</v>
       </c>
       <c r="R85">
-        <v>823</v>
+        <v>1420</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="T85">
-        <v>-462</v>
+        <v>0</v>
       </c>
       <c r="U85">
-        <v>237</v>
+        <v>1381</v>
       </c>
       <c r="V85">
-        <v>-389</v>
+        <v>1381</v>
       </c>
       <c r="W85">
-        <v>614</v>
+        <v>1381</v>
       </c>
       <c r="X85">
         <v>0</v>
       </c>
       <c r="Y85">
-        <v>-333</v>
+        <v>2016</v>
       </c>
       <c r="Z85">
-        <v>1193</v>
+        <v>2016</v>
       </c>
       <c r="AA85">
-        <v>258</v>
+        <v>2016</v>
       </c>
       <c r="AB85">
-        <v>-1118</v>
-      </c>
-      <c r="AC85">
-        <v>0</v>
-      </c>
-      <c r="AD85">
-        <v>80</v>
-      </c>
-      <c r="AE85">
-        <v>311</v>
-      </c>
-      <c r="AF85">
-        <v>-1578</v>
-      </c>
-      <c r="AG85">
-        <v>1187</v>
-      </c>
-      <c r="AH85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -9635,212 +8078,176 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1370</v>
       </c>
       <c r="L86">
-        <v>1797</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>-1797</v>
+        <v>1229</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="O86">
-        <v>1799</v>
+        <v>976</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="R86">
-        <v>-1799</v>
+        <v>1195</v>
       </c>
       <c r="S86">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="T86">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="U86">
-        <v>0</v>
+        <v>1048</v>
       </c>
       <c r="V86">
-        <v>0</v>
+        <v>2241</v>
       </c>
       <c r="W86">
-        <v>-1420</v>
+        <v>2499</v>
       </c>
       <c r="X86">
         <v>0</v>
       </c>
       <c r="Y86">
-        <v>1381</v>
+        <v>2096</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>2407</v>
       </c>
       <c r="AA86">
-        <v>0</v>
+        <v>829</v>
       </c>
       <c r="AB86">
-        <v>-1381</v>
-      </c>
-      <c r="AC86">
-        <v>0</v>
-      </c>
-      <c r="AD86">
-        <v>2016</v>
-      </c>
-      <c r="AE86">
-        <v>0</v>
-      </c>
-      <c r="AF86">
-        <v>0</v>
-      </c>
-      <c r="AG86">
-        <v>-2016</v>
-      </c>
-      <c r="AH86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1515</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1370</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1370</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1370</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1783</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1783</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
       <c r="L87">
-        <v>1370</v>
+        <v>0</v>
       </c>
       <c r="M87">
-        <v>-1370</v>
+        <v>0</v>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
       <c r="O87">
-        <v>1229</v>
+        <v>0</v>
       </c>
       <c r="P87">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>-364</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>-976</v>
+        <v>0</v>
       </c>
       <c r="S87">
         <v>0</v>
       </c>
       <c r="T87">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="U87">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="V87">
-        <v>-389</v>
+        <v>0</v>
       </c>
       <c r="W87">
-        <v>-806</v>
+        <v>0</v>
       </c>
       <c r="X87">
         <v>0</v>
       </c>
       <c r="Y87">
-        <v>1048</v>
+        <v>0</v>
       </c>
       <c r="Z87">
-        <v>1193</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="AB87">
-        <v>-2499</v>
-      </c>
-      <c r="AC87">
-        <v>0</v>
-      </c>
-      <c r="AD87">
-        <v>2096</v>
-      </c>
-      <c r="AE87">
-        <v>311</v>
-      </c>
-      <c r="AF87">
-        <v>-1578</v>
-      </c>
-      <c r="AG87">
-        <v>-829</v>
-      </c>
-      <c r="AH87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D88">
-        <v>1515</v>
+        <v>1370</v>
       </c>
       <c r="E88">
-        <v>1370</v>
+        <v>1313</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1681</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1522</v>
       </c>
       <c r="H88">
-        <v>-1370</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1583</v>
       </c>
       <c r="J88">
-        <v>1783</v>
+        <v>1609</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
-        <v>-1783</v>
+        <v>0</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -9890,58 +8297,40 @@
       <c r="AB88">
         <v>0</v>
       </c>
-      <c r="AC88">
-        <v>0</v>
-      </c>
-      <c r="AD88">
-        <v>0</v>
-      </c>
-      <c r="AE88">
-        <v>0</v>
-      </c>
-      <c r="AF88">
-        <v>0</v>
-      </c>
-      <c r="AG88">
-        <v>0</v>
-      </c>
-      <c r="AH88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D89">
-        <v>1370</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>1313</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>-159</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>-1522</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>1583</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>-1609</v>
+        <v>0</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -9977,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y89">
         <v>0</v>
@@ -9989,33 +8378,15 @@
         <v>0</v>
       </c>
       <c r="AB89">
-        <v>0</v>
-      </c>
-      <c r="AC89">
-        <v>0</v>
-      </c>
-      <c r="AD89">
-        <v>0</v>
-      </c>
-      <c r="AE89">
-        <v>0</v>
-      </c>
-      <c r="AF89">
-        <v>0</v>
-      </c>
-      <c r="AG89">
-        <v>0</v>
-      </c>
-      <c r="AH89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -10030,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -10042,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -10054,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>-379</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -10066,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="T90">
-        <v>0</v>
+        <v>-39</v>
       </c>
       <c r="U90">
         <v>0</v>
@@ -10078,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="Y90">
         <v>0</v>
@@ -10090,33 +8461,15 @@
         <v>0</v>
       </c>
       <c r="AB90">
-        <v>13</v>
-      </c>
-      <c r="AC90">
-        <v>13</v>
-      </c>
-      <c r="AD90">
-        <v>0</v>
-      </c>
-      <c r="AE90">
-        <v>0</v>
-      </c>
-      <c r="AF90">
-        <v>0</v>
-      </c>
-      <c r="AG90">
-        <v>-6</v>
-      </c>
-      <c r="AH90">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
+        <v>-1114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -10131,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>413</v>
+        <v>1384</v>
       </c>
       <c r="I91">
-        <v>413</v>
+        <v>0</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -10143,31 +8496,31 @@
         <v>0</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>1797</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O91">
         <v>0</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>1799</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>-379</v>
+        <v>0</v>
       </c>
       <c r="S91">
-        <v>-379</v>
+        <v>0</v>
       </c>
       <c r="T91">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="U91">
         <v>0</v>
@@ -10176,10 +8529,10 @@
         <v>0</v>
       </c>
       <c r="W91">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="X91">
-        <v>-39</v>
+        <v>1381</v>
       </c>
       <c r="Y91">
         <v>0</v>
@@ -10191,33 +8544,15 @@
         <v>0</v>
       </c>
       <c r="AB91">
-        <v>635</v>
-      </c>
-      <c r="AC91">
-        <v>635</v>
-      </c>
-      <c r="AD91">
-        <v>0</v>
-      </c>
-      <c r="AE91">
-        <v>0</v>
-      </c>
-      <c r="AF91">
-        <v>0</v>
-      </c>
-      <c r="AG91">
-        <v>-1114</v>
-      </c>
-      <c r="AH91">
-        <v>-1114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -10232,10 +8567,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>1384</v>
+        <v>1797</v>
       </c>
       <c r="I92">
-        <v>1384</v>
+        <v>0</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -10244,31 +8579,31 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>1799</v>
       </c>
       <c r="M92">
-        <v>1797</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>1797</v>
+        <v>0</v>
       </c>
       <c r="O92">
         <v>0</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>1799</v>
+        <v>0</v>
       </c>
       <c r="S92">
-        <v>1799</v>
+        <v>0</v>
       </c>
       <c r="T92">
-        <v>0</v>
+        <v>1381</v>
       </c>
       <c r="U92">
         <v>0</v>
@@ -10277,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="W92">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="X92">
-        <v>1420</v>
+        <v>2016</v>
       </c>
       <c r="Y92">
         <v>0</v>
@@ -10292,36 +8627,21 @@
         <v>0</v>
       </c>
       <c r="AB92">
-        <v>1381</v>
-      </c>
-      <c r="AC92">
-        <v>1381</v>
-      </c>
-      <c r="AD92">
-        <v>0</v>
-      </c>
-      <c r="AE92">
-        <v>0</v>
-      </c>
-      <c r="AF92">
-        <v>0</v>
-      </c>
-      <c r="AG92">
-        <v>2016</v>
-      </c>
-      <c r="AH92">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
+      <c r="B93" t="s">
+        <v>117</v>
+      </c>
       <c r="C93" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -10333,10 +8653,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>1797</v>
+        <v>56</v>
       </c>
       <c r="I93">
-        <v>1797</v>
+        <v>0</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -10345,31 +8665,31 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="M93">
-        <v>1799</v>
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>1799</v>
+        <v>0</v>
       </c>
       <c r="O93">
         <v>0</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="Q93">
         <v>0</v>
       </c>
       <c r="R93">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="S93">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="T93">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="U93">
         <v>0</v>
@@ -10378,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="W93">
-        <v>1381</v>
+        <v>0</v>
       </c>
       <c r="X93">
-        <v>1381</v>
+        <v>0</v>
       </c>
       <c r="Y93">
         <v>0</v>
@@ -10393,137 +8713,101 @@
         <v>0</v>
       </c>
       <c r="AB93">
-        <v>2016</v>
-      </c>
-      <c r="AC93">
-        <v>2016</v>
-      </c>
-      <c r="AD93">
-        <v>0</v>
-      </c>
-      <c r="AE93">
-        <v>0</v>
-      </c>
-      <c r="AF93">
-        <v>0</v>
-      </c>
-      <c r="AG93">
-        <v>902</v>
-      </c>
-      <c r="AH93">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>60</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
         <v>124</v>
       </c>
-      <c r="C94" t="s">
-        <v>125</v>
-      </c>
-      <c r="D94">
-        <v>81</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>56</v>
-      </c>
-      <c r="I94">
-        <v>56</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>77</v>
-      </c>
-      <c r="N94">
-        <v>77</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <v>93</v>
-      </c>
-      <c r="S94">
-        <v>93</v>
-      </c>
-      <c r="T94">
-        <v>0</v>
-      </c>
-      <c r="U94">
-        <v>0</v>
-      </c>
-      <c r="V94">
-        <v>0</v>
-      </c>
-      <c r="W94">
-        <v>85</v>
-      </c>
-      <c r="X94">
-        <v>85</v>
-      </c>
-      <c r="Y94">
-        <v>0</v>
-      </c>
-      <c r="Z94">
-        <v>0</v>
-      </c>
-      <c r="AA94">
-        <v>0</v>
-      </c>
-      <c r="AB94">
-        <v>0</v>
-      </c>
-      <c r="AC94">
-        <v>0</v>
-      </c>
-      <c r="AD94">
-        <v>0</v>
-      </c>
-      <c r="AE94">
-        <v>0</v>
-      </c>
-      <c r="AF94">
-        <v>0</v>
-      </c>
-      <c r="AG94">
-        <v>0</v>
-      </c>
-      <c r="AH94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
+      <c r="B95" t="s">
+        <v>119</v>
+      </c>
       <c r="C95" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -10568,337 +8852,283 @@
         <v>0</v>
       </c>
       <c r="R95">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="S95">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="T95">
         <v>0</v>
       </c>
       <c r="U95">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="V95">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="W95">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="X95">
         <v>0</v>
       </c>
       <c r="Y95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AA95">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="AB95">
-        <v>60</v>
-      </c>
-      <c r="AC95">
-        <v>60</v>
-      </c>
-      <c r="AD95">
-        <v>0</v>
-      </c>
-      <c r="AE95">
-        <v>0</v>
-      </c>
-      <c r="AF95">
-        <v>0</v>
-      </c>
-      <c r="AG95">
-        <v>124</v>
-      </c>
-      <c r="AH95">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C96" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="T96">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="U96">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V96">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="W96">
-        <v>-75</v>
+        <v>8</v>
       </c>
       <c r="X96">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y96">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z96">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="AA96">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="AB96">
-        <v>-41</v>
-      </c>
-      <c r="AC96">
-        <v>0</v>
-      </c>
-      <c r="AD96">
-        <v>2</v>
-      </c>
-      <c r="AE96">
-        <v>100</v>
-      </c>
-      <c r="AF96">
-        <v>76</v>
-      </c>
-      <c r="AG96">
-        <v>-178</v>
-      </c>
-      <c r="AH96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C97" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D97">
-        <v>452</v>
+        <v>78</v>
       </c>
       <c r="E97">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F97">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="G97">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="H97">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="I97">
-        <v>488</v>
+        <v>38</v>
       </c>
       <c r="J97">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K97">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="L97">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="M97">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="N97">
-        <v>570</v>
+        <v>38</v>
       </c>
       <c r="O97">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="P97">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="Q97">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="R97">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="S97">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="T97">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="U97">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="V97">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="W97">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="X97">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="Y97">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Z97">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA97">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="AB97">
-        <v>12</v>
-      </c>
-      <c r="AC97">
-        <v>20</v>
-      </c>
-      <c r="AD97">
-        <v>20</v>
-      </c>
-      <c r="AE97">
-        <v>127</v>
-      </c>
-      <c r="AF97">
-        <v>34</v>
-      </c>
-      <c r="AG97">
-        <v>34</v>
-      </c>
-      <c r="AH97">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C98" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D98">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>0</v>
       </c>
       <c r="L98">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M98">
         <v>0</v>
       </c>
       <c r="N98">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="O98">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>39</v>
+        <v>301</v>
       </c>
       <c r="R98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S98">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="T98">
-        <v>38</v>
+        <v>1244</v>
       </c>
       <c r="U98">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="V98">
         <v>0</v>
       </c>
       <c r="W98">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="X98">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="Y98">
         <v>0</v>
@@ -10910,36 +9140,18 @@
         <v>0</v>
       </c>
       <c r="AB98">
-        <v>145</v>
-      </c>
-      <c r="AC98">
-        <v>145</v>
-      </c>
-      <c r="AD98">
-        <v>0</v>
-      </c>
-      <c r="AE98">
-        <v>0</v>
-      </c>
-      <c r="AF98">
-        <v>0</v>
-      </c>
-      <c r="AG98">
-        <v>180</v>
-      </c>
-      <c r="AH98">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C99" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -10990,19 +9202,19 @@
         <v>0</v>
       </c>
       <c r="T99">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="U99">
-        <v>-301</v>
+        <v>0</v>
       </c>
       <c r="V99">
         <v>0</v>
       </c>
       <c r="W99">
-        <v>1244</v>
+        <v>0</v>
       </c>
       <c r="X99">
-        <v>1244</v>
+        <v>1096</v>
       </c>
       <c r="Y99">
         <v>0</v>
@@ -11014,128 +9226,6 @@
         <v>0</v>
       </c>
       <c r="AB99">
-        <v>0</v>
-      </c>
-      <c r="AC99">
-        <v>0</v>
-      </c>
-      <c r="AD99">
-        <v>0</v>
-      </c>
-      <c r="AE99">
-        <v>0</v>
-      </c>
-      <c r="AF99">
-        <v>0</v>
-      </c>
-      <c r="AG99">
-        <v>0</v>
-      </c>
-      <c r="AH99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>126</v>
-      </c>
-      <c r="C100" t="s">
-        <v>131</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-      <c r="S100">
-        <v>0</v>
-      </c>
-      <c r="T100">
-        <v>0</v>
-      </c>
-      <c r="U100">
-        <v>0</v>
-      </c>
-      <c r="V100">
-        <v>0</v>
-      </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-      <c r="X100">
-        <v>0</v>
-      </c>
-      <c r="Y100">
-        <v>0</v>
-      </c>
-      <c r="Z100">
-        <v>0</v>
-      </c>
-      <c r="AA100">
-        <v>0</v>
-      </c>
-      <c r="AB100">
-        <v>1096</v>
-      </c>
-      <c r="AC100">
-        <v>1096</v>
-      </c>
-      <c r="AD100">
-        <v>0</v>
-      </c>
-      <c r="AE100">
-        <v>0</v>
-      </c>
-      <c r="AF100">
-        <v>0</v>
-      </c>
-      <c r="AG100">
-        <v>1061</v>
-      </c>
-      <c r="AH100">
         <v>1061</v>
       </c>
     </row>
